--- a/List.xlsx
+++ b/List.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f48fd5559d61f864/DBProgram/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\OneDrive\DBProgram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="98D510DCD982E490D8895CA7EA4E765304010E3D" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{1BDDBE38-1822-4594-887B-39A9C0A5F9DE}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="98D510DCD982E490D8895CA7EA4E765304010E3D" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{5A175A06-F38D-469D-AA76-7D4901883E0A}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20554" windowHeight="7046" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -579,10 +579,13 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F49"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="5" max="5" width="25.23046875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -618,7 +621,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="1">
-        <v>1.5219907407407411E-3</v>
+        <v>1.5277777777777779E-3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -635,7 +638,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="1">
-        <v>1.3240740740740741E-3</v>
+        <v>1.3194444444444443E-3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -652,7 +655,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="1">
-        <v>1.3402777777777777E-3</v>
+        <v>1.3425925925925925E-3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
@@ -669,7 +672,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="1">
-        <v>1.4826388888888886E-3</v>
+        <v>1.4814814814814814E-3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
@@ -686,7 +689,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="1">
-        <v>1.3229166666666665E-3</v>
+        <v>1.3194444444444443E-3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
@@ -737,7 +740,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="1">
-        <v>1.3993055555555555E-3</v>
+        <v>1.4004629629629629E-3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
